--- a/imageCreationExcel/back/106/106_10.xlsx
+++ b/imageCreationExcel/back/106/106_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.68130153294365</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.952740264957375</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.1950377069076452</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_8_brightness28.681_gamma0.953_sharpness0.195.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.133160139020772</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8050462126764021</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.878156139747249</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_contrast1.133_gamma0.805_sharpness0.878.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.13613536426565</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.172549437078753</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.735400538960466</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_contrast1.136_sharpness0.173_equalization7.735.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.022142237922912</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6294253061250994</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15.84030412139451</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_0_contrast1.022_gamma0.629_equalization15.84.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8382931874440469</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5568048684969692</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25.45385126937521</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_contrast0.838_gamma0.557_equalization25.454.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.10760776157952</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.814115567600194</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>25.91424024326236</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_contrast1.108_sharpness0.814_equalization25.914.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,16 +738,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5147077721885381</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.2862860641681153</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>31.81538807810283</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_gamma0.515_sharpness0.286_equalization31.815.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.181521994078199</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2375614676178837</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13.91582171512643</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_S_contrast1.182_sharpness0.238_equalization13.916.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.047151571718512</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.080123128228574</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.036011752430275</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_brightness5.047_contrast1.08_gamma1.036.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8990248604580662</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4293444422066742</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>30.49544959881399</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_T_gamma0.899_sharpness0.429_equalization30.495.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.308871390831415</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.031179319399884</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8807736434459578</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_brightness6.309_contrast1.031_gamma0.881.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8942359202515936</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1843978487155755</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18.87391553286258</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_contrast0.894_sharpness0.184_equalization18.874.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8894876351466362</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1241581671051323</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>16.95671269649134</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_contrast0.889_sharpness0.124_equalization16.957.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.39837285131717</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.018614787615851</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7157285064013936</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_brightness6.398_gamma1.019_sharpness0.716.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25.286021722188</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6400165865046705</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.006600175587837053</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_brightness25.286_gamma0.64_sharpness0.007.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29.47209258262006</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6931740470267366</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8583710848546</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_S_brightness29.472_gamma0.693_sharpness0.858.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27.35465731295146</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6006020379422433</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7946970581882122</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_brightness27.355_gamma0.601_sharpness0.795.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.25434981560623</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5966214674217464</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5380472463355321</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_brightness2.254_gamma0.597_sharpness0.538.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,24 +1242,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.135079428539993</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7264089589896405</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.2478149008438944</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_C_contrast1.135_gamma0.726_sharpness0.248.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9965516723959683</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.954529114349155</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>29.12381578352611</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_gamma0.997_sharpness0.955_equalization29.124.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15.6822814113784</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9427456593173804</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.7615367360421534</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_brightness15.682_contrast0.943_sharpness0.762.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8978000028925543</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9352734896886287</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.38661342476527</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_I_contrast0.898_gamma0.935_sharpness0.387.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8529614640511303</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3184100181908671</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>11.33448674347204</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_contrast0.853_sharpness0.318_equalization11.334.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21.9628029780911</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7991051271812286</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9898230727766479</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_0_brightness21.963_gamma0.799_sharpness0.99.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8111497105716164</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5751700079874872</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>26.99209828836545</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_1_contrast0.811_gamma0.575_equalization26.992.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.017358731516518</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5428017330642605</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.15642317909958</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_B_contrast1.017_gamma0.543_equalization18.156.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,15 +1587,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.087864411673967</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.6869797569842206</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16.57002822763419</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_contrast1.088_gamma0.687_equalization16.57.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9995108908643088</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5241585160550637</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.1434436599221</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_contrast1.0_gamma0.524_equalization19.143.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.084541021712684</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8670508392965499</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.01114749369986</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_1_contrast1.085_sharpness0.867_equalization19.011.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8002081751102308</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6998693232022188</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>29.02994725679149</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_2_contrast0.8_gamma0.7_equalization29.03.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.006773399238576</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8042180111440325</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.1130254274851</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_contrast1.007_gamma0.804_equalization15.113.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15.30454140469355</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.115297055866196</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.3636272407581988</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_brightness15.305_contrast1.115_sharpness0.364.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.10069122759055</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.21644619986927</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>23.49303709083239</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_contrast1.101_sharpness0.216_equalization23.493.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9057083028543833</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.3033110324843869</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12.30172975703518</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_contrast0.906_sharpness0.303_equalization12.302.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8572623812260305</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6648554221250145</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9.776386149476576</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_contrast0.857_gamma0.665_equalization9.776.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.972469675894258</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5447775670937661</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.8597350788258911</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_brightness5.972_gamma0.545_sharpness0.86.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.772999440264828</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6569242648396281</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6841336935258258</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_E_brightness4.773_gamma0.657_sharpness0.684.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.045486915797786</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.005368770993486</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.2517886959091174</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_P_contrast1.045_gamma1.005_sharpness0.252.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.144418332158754</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.07444689410025419</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>30.45789006018747</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_8_contrast1.144_sharpness0.074_equalization30.458.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.53140143749137</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.041053300162928</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.6939673187518434</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_brightness15.531_contrast1.041_sharpness0.694.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9423229075374555</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.024078757499682</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4640201706276746</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_contrast0.942_gamma1.024_sharpness0.464.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.902751850502995</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6275307614616661</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.674638314891176</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_2_brightness1.903_gamma0.628_sharpness0.675.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.104473449907787</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6469128040052904</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18.06307821101547</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_contrast1.104_gamma0.647_equalization18.063.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7973640834255794</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.3482707312487234</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>15.83343097439773</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_gamma0.797_sharpness0.348_equalization15.833.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13.50608852367579</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5237481874374009</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5035635416480853</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_C_brightness13.506_gamma0.524_sharpness0.504.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6393628324152056</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9595739926265112</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.20437251658691</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_T_gamma0.639_sharpness0.96_equalization15.204.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12.55407937914891</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9805376736483025</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9229707610327432</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_brightness12.554_contrast0.981_sharpness0.923.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.152779632401625</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7043876357548781</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>11.00997719395905</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_contrast1.153_sharpness0.704_equalization11.01.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
